--- a/pred_ohlcv/54_21/2019-11-14 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -678,7 +678,7 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>80101.02483519162</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>78216.85283519162</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>80198.87323519163</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>81199.47843519163</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>81312.94523519163</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>80463.99433519163</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>80474.45443519163</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>77371.33193519163</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>77371.33193519163</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>82182.33193519163</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>80882.33193519163</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>81285.33193519163</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>81244.96953519163</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>79501.60713519163</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>80176.60713519163</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>80094.88543519164</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>206589.5638351917</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>199399.2958351917</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>199399.2958351917</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>194231.0307351917</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>194562.9762351917</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>200945.8770351917</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>185989.9884351917</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>178560.7819351917</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>178341.2576351917</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-14 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -834,7 +834,7 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>80198.87323519163</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>83399.47843519163</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>81199.47843519163</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>81312.94523519163</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>80463.99433519163</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>80474.45443519163</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>77371.33193519163</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>77371.33193519163</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>82182.33193519163</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>80882.33193519163</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>81285.33193519163</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>81244.96953519163</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>79501.60713519163</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>80176.60713519163</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>80094.88543519164</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>162359.4336351916</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>185391.9689351917</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>193101.3530351917</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>198226.2168351917</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>206589.5638351917</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>199399.2958351917</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>199399.2958351917</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>194231.0307351917</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>194562.9762351917</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>200945.8770351917</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>185989.9884351917</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>178560.7819351917</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>178341.2576351917</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>176335.3476351917</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>185342.7068351917</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
